--- a/timonel-testbed/test/Scope_Readings.xlsx
+++ b/timonel-testbed/test/Scope_Readings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casanovg\source\Repos\timonel\timonel-testbed\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F4AF9-6C6C-4C35-B8C3-9FE1D4B66BD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E4081-9218-4FC2-A6B2-FF5A07C4D56C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="5565" windowWidth="19065" windowHeight="10335" xr2:uid="{C45A570B-D4C0-4E00-B41F-5AC36C95DEC3}"/>
+    <workbookView xWindow="390" yWindow="1635" windowWidth="19065" windowHeight="7125" xr2:uid="{C45A570B-D4C0-4E00-B41F-5AC36C95DEC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>TWI-14_GETTMNLV_Master_only</t>
   </si>
@@ -138,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -151,7 +156,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ED49BE-9C21-46C4-84FF-7012B3E24EC9}">
-  <dimension ref="B2:AE6"/>
+  <dimension ref="B2:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -550,43 +554,43 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="11">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="10">
         <f>$B4*(2^6)+$C4*(2^5)+$D4*(2^4)+$E4*(2^3)+$F4*(2^2)+$G4*(2^1)+$H4*(2^0)</f>
         <v>14</v>
       </c>
-      <c r="M4" s="9" t="str">
+      <c r="M4" s="8" t="str">
         <f>IF($I4=1, "Read", "Write")</f>
         <v>Write</v>
       </c>
-      <c r="N4" s="10" t="str">
+      <c r="N4" s="9" t="str">
         <f>IF(J4=0, "ACK", "NACK")</f>
         <v>NACK</v>
       </c>
@@ -594,106 +598,233 @@
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.2">
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="11">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="10">
         <f>$B6*(2^6)+$C6*(2^5)+$D6*(2^4)+$E6*(2^3)+$F6*(2^2)+$G6*(2^1)+$H6*(2^0)</f>
         <v>14</v>
       </c>
-      <c r="M6" s="9" t="str">
+      <c r="M6" s="8" t="str">
         <f>IF($I6=1, "Read", "Write")</f>
         <v>Write</v>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="N6" s="9" t="str">
         <f>IF(J6=0, "ACK", "NACK")</f>
         <v>ACK</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="8">
-        <v>1</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8">
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="7">
         <f>$R6*(2^7)+$S6*(2^6)+$T6*(2^5)+$U6*(2^4)+$V6*(2^3)+$W6*(2^2)+$X6*(2^1)+$Y6*(2^0)</f>
         <v>130</v>
       </c>
-      <c r="AC6" s="10" t="str">
+      <c r="AC6" s="9" t="str">
         <f>IF(Z6=0, "ACK", "NACK")</f>
         <v>ACK</v>
       </c>
-      <c r="AE6" s="8" t="str">
+      <c r="AE6" s="7" t="str">
         <f>CONCATENATE("0x",DEC2HEX(AB6,2))</f>
         <v>0x82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="10">
+        <f>$B8*(2^6)+$C8*(2^5)+$D8*(2^4)+$E8*(2^3)+$F8*(2^2)+$G8*(2^1)+$H8*(2^0)</f>
+        <v>14</v>
+      </c>
+      <c r="M8" s="8" t="str">
+        <f>IF($I8=1, "Read", "Write")</f>
+        <v>Read</v>
+      </c>
+      <c r="N8" s="9" t="str">
+        <f>IF(J8=0, "ACK", "NACK")</f>
+        <v>ACK</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7">
+        <v>1</v>
+      </c>
+      <c r="V8" s="7">
+        <v>1</v>
+      </c>
+      <c r="W8" s="7">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="7">
+        <f>$R8*(2^7)+$S8*(2^6)+$T8*(2^5)+$U8*(2^4)+$V8*(2^3)+$W8*(2^2)+$X8*(2^1)+$Y8*(2^0)</f>
+        <v>125</v>
+      </c>
+      <c r="AC8" s="9" t="str">
+        <f>IF(Z8=0, "ACK", "NACK")</f>
+        <v>ACK</v>
+      </c>
+      <c r="AE8" s="7" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(AB8,2))</f>
+        <v>0x7D</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>1</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="7">
+        <f>$R10*(2^7)+$S10*(2^6)+$T10*(2^5)+$U10*(2^4)+$V10*(2^3)+$W10*(2^2)+$X10*(2^1)+$Y10*(2^0)</f>
+        <v>80</v>
+      </c>
+      <c r="AC10" s="9" t="str">
+        <f>IF(Z10=0, "ACK", "NACK")</f>
+        <v>ACK</v>
+      </c>
+      <c r="AE10" s="7" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(AB10,2))</f>
+        <v>0x50</v>
       </c>
     </row>
   </sheetData>

--- a/timonel-testbed/test/Scope_Readings.xlsx
+++ b/timonel-testbed/test/Scope_Readings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casanovg\source\Repos\timonel\timonel-testbed\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E4081-9218-4FC2-A6B2-FF5A07C4D56C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCFD32C-A86C-49E2-BCEF-7EB2DCD2667B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1635" windowWidth="19065" windowHeight="7125" xr2:uid="{C45A570B-D4C0-4E00-B41F-5AC36C95DEC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C45A570B-D4C0-4E00-B41F-5AC36C95DEC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
